--- a/data/trans_orig/P2A_psíq_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>20263</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12465</v>
+        <v>12553</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>31416</v>
+        <v>30704</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01963972927113831</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01208149342113719</v>
+        <v>0.01216720685239558</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03045019207452701</v>
+        <v>0.02976038864730753</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>21</v>
@@ -765,19 +765,19 @@
         <v>21125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12820</v>
+        <v>13111</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32098</v>
+        <v>32258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01606308613010361</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009748266188653367</v>
+        <v>0.009969168441752493</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02440679499488551</v>
+        <v>0.02452852147857319</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -786,19 +786,19 @@
         <v>41388</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29890</v>
+        <v>28543</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56044</v>
+        <v>55833</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01763546070133628</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01273632015774166</v>
+        <v>0.01216235618808205</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02388059938598072</v>
+        <v>0.02379062159420765</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>1011460</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1000307</v>
+        <v>1001019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1019258</v>
+        <v>1019170</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9803602707288617</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9695498079254731</v>
+        <v>0.9702396113526925</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9879185065788629</v>
+        <v>0.9878327931476045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1270</v>
@@ -836,19 +836,19 @@
         <v>1293988</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1283015</v>
+        <v>1282855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1302293</v>
+        <v>1302002</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9839369138698963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9755932050051145</v>
+        <v>0.9754714785214268</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9902517338113467</v>
+        <v>0.9900308315582476</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2288</v>
@@ -857,19 +857,19 @@
         <v>2305447</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2290791</v>
+        <v>2291002</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2316945</v>
+        <v>2318292</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9823645392986637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9761194006140197</v>
+        <v>0.9762093784057925</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9872636798422586</v>
+        <v>0.987837643811918</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>8569</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3637</v>
+        <v>3780</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16553</v>
+        <v>16964</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005060190300046104</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00214776473484718</v>
+        <v>0.002231927582898434</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.009774796906990152</v>
+        <v>0.01001785072716924</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -982,19 +982,19 @@
         <v>10993</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5761</v>
+        <v>5766</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19219</v>
+        <v>19292</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.006923682134270508</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.00362852718276415</v>
+        <v>0.003631709103617626</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01210532669644704</v>
+        <v>0.01215140736551448</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -1003,19 +1003,19 @@
         <v>19562</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11615</v>
+        <v>12262</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>31256</v>
+        <v>30077</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005961908853149043</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003539989087450382</v>
+        <v>0.003737074052426266</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009526146103129527</v>
+        <v>0.009166715098561011</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1684844</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1676860</v>
+        <v>1676449</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1689776</v>
+        <v>1689633</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9949398096999539</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9902252030930099</v>
+        <v>0.9899821492728308</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9978522352651529</v>
+        <v>0.9977680724171016</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1543</v>
@@ -1053,19 +1053,19 @@
         <v>1576680</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1568454</v>
+        <v>1568381</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1581912</v>
+        <v>1581907</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9930763178657295</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9878946733035527</v>
+        <v>0.9878485926344857</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9963714728172357</v>
+        <v>0.9963682908963825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3185</v>
@@ -1074,19 +1074,19 @@
         <v>3261524</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3249830</v>
+        <v>3251009</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3269471</v>
+        <v>3268824</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9940380911468509</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9904738538968705</v>
+        <v>0.9908332849014391</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9964600109125497</v>
+        <v>0.9962629259475738</v>
       </c>
     </row>
     <row r="9">
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>4585</v>
+        <v>5509</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0016486540871733</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.008315675897405915</v>
+        <v>0.009991391923520823</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -1199,19 +1199,19 @@
         <v>7358</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3208</v>
+        <v>3157</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14318</v>
+        <v>14780</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01544523188511836</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006734086173984067</v>
+        <v>0.00662763696240209</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0300546276549525</v>
+        <v>0.03102348828705041</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1220,19 +1220,19 @@
         <v>8267</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3260</v>
+        <v>3976</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>15301</v>
+        <v>16917</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008043599645731979</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003172134836567893</v>
+        <v>0.003868106840789282</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01488663370860074</v>
+        <v>0.01645935021770407</v>
       </c>
     </row>
     <row r="11">
@@ -1249,7 +1249,7 @@
         <v>550499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>546823</v>
+        <v>545899</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>551408</v>
@@ -1258,7 +1258,7 @@
         <v>0.9983513459128267</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9916843241025941</v>
+        <v>0.9900086080764792</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1270,19 +1270,19 @@
         <v>469054</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>462094</v>
+        <v>461632</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>473204</v>
+        <v>473255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9845547681148816</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9699453723450476</v>
+        <v>0.9689765117129496</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.993265913826016</v>
+        <v>0.9933723630375979</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>971</v>
@@ -1291,19 +1291,19 @@
         <v>1019553</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1012519</v>
+        <v>1010903</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1024560</v>
+        <v>1023844</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.991956400354268</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9851133662913995</v>
+        <v>0.9835406497822962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9968278651634321</v>
+        <v>0.9961318931592107</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>29741</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18693</v>
+        <v>19663</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>42163</v>
+        <v>42984</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009076891393513425</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005705235316426005</v>
+        <v>0.00600103325406212</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0128682468468541</v>
+        <v>0.01311863160486967</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -1416,19 +1416,19 @@
         <v>39476</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>27964</v>
+        <v>28681</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53970</v>
+        <v>54422</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01168194555370886</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.008275318145812454</v>
+        <v>0.00848755459349949</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01597138575777369</v>
+        <v>0.01610494862382915</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>67</v>
@@ -1437,19 +1437,19 @@
         <v>69216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>54798</v>
+        <v>53023</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>88719</v>
+        <v>87427</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01039950783791335</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008233181728571208</v>
+        <v>0.0079664480163226</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01332964997505975</v>
+        <v>0.01313559146719461</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>3246802</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3234380</v>
+        <v>3233559</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3257850</v>
+        <v>3256880</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9909231086064866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9871317531531463</v>
+        <v>0.9868813683951304</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9942947646835746</v>
+        <v>0.9939989667459381</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3258</v>
@@ -1487,19 +1487,19 @@
         <v>3339721</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3325227</v>
+        <v>3324775</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3351233</v>
+        <v>3350516</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9883180544462912</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9840286142422263</v>
+        <v>0.9838950513761708</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9917246818541876</v>
+        <v>0.9915124454065006</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6444</v>
@@ -1508,19 +1508,19 @@
         <v>6586525</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6567022</v>
+        <v>6568314</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6600943</v>
+        <v>6602718</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9896004921620867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9866703500249402</v>
+        <v>0.9868644085328053</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9917668182714288</v>
+        <v>0.9920335519836774</v>
       </c>
     </row>
     <row r="15">
@@ -1851,19 +1851,19 @@
         <v>32739</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21734</v>
+        <v>21754</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>47224</v>
+        <v>46434</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0335909937025576</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02229939612868312</v>
+        <v>0.02231994110804047</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04845225040218458</v>
+        <v>0.04764239037344042</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -1872,19 +1872,19 @@
         <v>39116</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>27265</v>
+        <v>28251</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>53934</v>
+        <v>52839</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02923947609050108</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0203803332640503</v>
+        <v>0.02111721307109386</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04031567165073885</v>
+        <v>0.03949693006095802</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -1893,19 +1893,19 @@
         <v>71856</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>55091</v>
+        <v>55550</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>90993</v>
+        <v>91091</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03107354618026929</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02382367988951186</v>
+        <v>0.02402243929388776</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0393493140053263</v>
+        <v>0.03939157748611422</v>
       </c>
     </row>
     <row r="5">
@@ -1922,19 +1922,19 @@
         <v>941904</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>927419</v>
+        <v>928209</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>952909</v>
+        <v>952889</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9664090062974424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9515477495978151</v>
+        <v>0.9523576096265598</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9777006038713164</v>
+        <v>0.9776800588919596</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1212</v>
@@ -1943,19 +1943,19 @@
         <v>1298681</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1283863</v>
+        <v>1284958</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1310532</v>
+        <v>1309546</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.970760523909499</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9596843283492612</v>
+        <v>0.9605030699390408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9796196667359497</v>
+        <v>0.9788827869289057</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2092</v>
@@ -1964,19 +1964,19 @@
         <v>2240584</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2221447</v>
+        <v>2221349</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2257349</v>
+        <v>2256890</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9689264538197307</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9606506859946724</v>
+        <v>0.9606084225138858</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9761763201104877</v>
+        <v>0.9759775607061122</v>
       </c>
     </row>
     <row r="6">
@@ -2068,19 +2068,19 @@
         <v>24434</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15698</v>
+        <v>15848</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37275</v>
+        <v>38203</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01244136887414907</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007993054967615813</v>
+        <v>0.008069522959857202</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01897949962921251</v>
+        <v>0.01945217248305291</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>27</v>
@@ -2089,19 +2089,19 @@
         <v>27231</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18893</v>
+        <v>18563</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>39255</v>
+        <v>38267</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01549168762319784</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01074814329697492</v>
+        <v>0.01056027204828399</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0223320476397901</v>
+        <v>0.02177003659215629</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>49</v>
@@ -2110,19 +2110,19 @@
         <v>51666</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>38497</v>
+        <v>38245</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>67147</v>
+        <v>68360</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01388204702492316</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01034384648267349</v>
+        <v>0.01027604896934848</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01804177470928831</v>
+        <v>0.01836778424810327</v>
       </c>
     </row>
     <row r="8">
@@ -2139,19 +2139,19 @@
         <v>1939523</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1926682</v>
+        <v>1925754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1948259</v>
+        <v>1948109</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.987558631125851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9810205003707876</v>
+        <v>0.9805478275169471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9920069450323842</v>
+        <v>0.9919304770401428</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1608</v>
@@ -2160,19 +2160,19 @@
         <v>1730572</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1718548</v>
+        <v>1719536</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1738910</v>
+        <v>1739240</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9845083123768021</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9776679523602101</v>
+        <v>0.9782299634078438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9892518567030251</v>
+        <v>0.9894397279517161</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3442</v>
@@ -2181,19 +2181,19 @@
         <v>3670094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3654613</v>
+        <v>3653400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>3683263</v>
+        <v>3683515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9861179529750769</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9819582252907118</v>
+        <v>0.9816322157518963</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9896561535173266</v>
+        <v>0.9897239510306515</v>
       </c>
     </row>
     <row r="9">
@@ -2285,19 +2285,19 @@
         <v>6338</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2110</v>
+        <v>2080</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14501</v>
+        <v>15361</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01317114390190291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004386078258301915</v>
+        <v>0.004322105234491765</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03013704078739422</v>
+        <v>0.03192347932252815</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>7</v>
@@ -2306,19 +2306,19 @@
         <v>7867</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3903</v>
+        <v>2931</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>16365</v>
+        <v>14566</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01715320700235623</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.008510663382680772</v>
+        <v>0.006391653838262974</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03568296805823087</v>
+        <v>0.03175888204021284</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -2327,19 +2327,19 @@
         <v>14205</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7746</v>
+        <v>7937</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24993</v>
+        <v>24927</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01511440160662386</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008242029748453499</v>
+        <v>0.008445574050749999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02659375154539759</v>
+        <v>0.02652341778377936</v>
       </c>
     </row>
     <row r="11">
@@ -2356,19 +2356,19 @@
         <v>474843</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>466680</v>
+        <v>465820</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>479071</v>
+        <v>479101</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9868288560980971</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9698629592126059</v>
+        <v>0.968076520677471</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9956139217416982</v>
+        <v>0.9956778947655083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>405</v>
@@ -2377,19 +2377,19 @@
         <v>450764</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>442266</v>
+        <v>444065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>454728</v>
+        <v>455700</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9828467929976438</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9643170319417669</v>
+        <v>0.9682411179597863</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9914893366173191</v>
+        <v>0.9936083461617371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>838</v>
@@ -2398,19 +2398,19 @@
         <v>925608</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>914820</v>
+        <v>914886</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>932067</v>
+        <v>931876</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9848855983933762</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9734062484546021</v>
+        <v>0.9734765822162206</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9917579702515458</v>
+        <v>0.9915544259492499</v>
       </c>
     </row>
     <row r="12">
@@ -2502,19 +2502,19 @@
         <v>63511</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>48225</v>
+        <v>48735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82812</v>
+        <v>83137</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01857172721882886</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01410185948085792</v>
+        <v>0.01425083793690863</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02421562426979921</v>
+        <v>0.02431072834895856</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -2523,19 +2523,19 @@
         <v>74215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>56257</v>
+        <v>58029</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>91663</v>
+        <v>93001</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0208806936256072</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01582821170643206</v>
+        <v>0.01632686337694794</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02578976999154165</v>
+        <v>0.0261663273566746</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>124</v>
@@ -2544,19 +2544,19 @@
         <v>137726</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>116356</v>
+        <v>114823</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>167799</v>
+        <v>164730</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01974846711773217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01668421596783458</v>
+        <v>0.01646438980793664</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02406059962011184</v>
+        <v>0.02362056448668152</v>
       </c>
     </row>
     <row r="14">
@@ -2573,19 +2573,19 @@
         <v>3356271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3336970</v>
+        <v>3336645</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3371557</v>
+        <v>3371047</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9814282727811712</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9757843757302009</v>
+        <v>0.9756892716510414</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9858981405191422</v>
+        <v>0.9857491620630913</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3225</v>
@@ -2594,19 +2594,19 @@
         <v>3480015</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3462567</v>
+        <v>3461229</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3497973</v>
+        <v>3496201</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9791193063743928</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9742102300084582</v>
+        <v>0.9738336726433254</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9841717882935679</v>
+        <v>0.9836731366230521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6372</v>
@@ -2615,19 +2615,19 @@
         <v>6836286</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6806213</v>
+        <v>6809282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6857656</v>
+        <v>6859189</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9802515328822679</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9759394003798875</v>
+        <v>0.9763794355133185</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9833157840321652</v>
+        <v>0.9835356101920634</v>
       </c>
     </row>
     <row r="15">
@@ -2958,19 +2958,19 @@
         <v>13894</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7990</v>
+        <v>7579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23107</v>
+        <v>22233</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01841802429401474</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01059157676325408</v>
+        <v>0.01004649483249936</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03063224518304408</v>
+        <v>0.02947289752191272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -2979,19 +2979,19 @@
         <v>23730</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15461</v>
+        <v>15417</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>34488</v>
+        <v>35798</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02385696092062134</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01554423448113074</v>
+        <v>0.01550004797371398</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03467291748174432</v>
+        <v>0.03599032211919432</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -3000,19 +3000,19 @@
         <v>37623</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>26694</v>
+        <v>27206</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51407</v>
+        <v>51291</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02151114730471274</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01526215707415318</v>
+        <v>0.01555529493144953</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02939227245096224</v>
+        <v>0.02932593970660681</v>
       </c>
     </row>
     <row r="5">
@@ -3029,19 +3029,19 @@
         <v>740453</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>731240</v>
+        <v>732114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>746357</v>
+        <v>746768</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9815819757059853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9693677548169566</v>
+        <v>0.9705271024780875</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9894084232367464</v>
+        <v>0.9899535051675008</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>870</v>
@@ -3050,19 +3050,19 @@
         <v>970930</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>960172</v>
+        <v>958862</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>979199</v>
+        <v>979243</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9761430390793786</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9653270825182557</v>
+        <v>0.9640096778808056</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9844557655188693</v>
+        <v>0.984499952026286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1618</v>
@@ -3071,19 +3071,19 @@
         <v>1711384</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1697600</v>
+        <v>1697716</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1722313</v>
+        <v>1721801</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9784888526952873</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9706077275490382</v>
+        <v>0.970674060293393</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.984737842925847</v>
+        <v>0.9844447050685504</v>
       </c>
     </row>
     <row r="6">
@@ -3175,19 +3175,19 @@
         <v>16024</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8611</v>
+        <v>8904</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27152</v>
+        <v>28235</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007717061358015928</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00414713835613883</v>
+        <v>0.004288249158602478</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0130767290177897</v>
+        <v>0.01359837943482553</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>25</v>
@@ -3196,19 +3196,19 @@
         <v>28553</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>18963</v>
+        <v>18717</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>41586</v>
+        <v>41001</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01436044774334776</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009537355994193379</v>
+        <v>0.009413347853742544</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02091540630800397</v>
+        <v>0.02062132188825766</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>39</v>
@@ -3217,19 +3217,19 @@
         <v>44576</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>31257</v>
+        <v>31522</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60583</v>
+        <v>60146</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01096677086367637</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007689840299339045</v>
+        <v>0.007755002678336827</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01490481722221609</v>
+        <v>0.01479723511788607</v>
       </c>
     </row>
     <row r="8">
@@ -3246,19 +3246,19 @@
         <v>2060361</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2049233</v>
+        <v>2048150</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2067774</v>
+        <v>2067481</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.992282938641984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9869232709822103</v>
+        <v>0.9864016205651746</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9958528616438612</v>
+        <v>0.9957117508413975</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1883</v>
@@ -3267,19 +3267,19 @@
         <v>1959747</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1946714</v>
+        <v>1947299</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1969337</v>
+        <v>1969583</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9856395522566522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9790845936919961</v>
+        <v>0.9793786781117424</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9904626440058066</v>
+        <v>0.9905866521462576</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3821</v>
@@ -3288,19 +3288,19 @@
         <v>4020109</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4004102</v>
+        <v>4004539</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4033428</v>
+        <v>4033163</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9890332291363236</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9850951827777839</v>
+        <v>0.9852027648821138</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9923101597006609</v>
+        <v>0.9922449973216632</v>
       </c>
     </row>
     <row r="9">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7244</v>
+        <v>6935</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.003628266943359917</v>
@@ -3404,7 +3404,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01324673997332955</v>
+        <v>0.01268078266984293</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -3413,19 +3413,19 @@
         <v>5006</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1968</v>
+        <v>1972</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11001</v>
+        <v>10919</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009116130891924283</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003584038872930684</v>
+        <v>0.003591002562826393</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02003327292043476</v>
+        <v>0.01988344681341985</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -3434,19 +3434,19 @@
         <v>6990</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3014</v>
+        <v>2908</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13452</v>
+        <v>14051</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.006377842225744158</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002750326008812409</v>
+        <v>0.002653637371949054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01227312146669568</v>
+        <v>0.01282024306129182</v>
       </c>
     </row>
     <row r="11">
@@ -3463,7 +3463,7 @@
         <v>544902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>539642</v>
+        <v>539951</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>546886</v>
@@ -3472,7 +3472,7 @@
         <v>0.9963717330566401</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9867532600266699</v>
+        <v>0.9873192173301567</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -3484,19 +3484,19 @@
         <v>544134</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>538139</v>
+        <v>538221</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>547172</v>
+        <v>547168</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9908838691080757</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9799667270795651</v>
+        <v>0.98011655318658</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9964159611270693</v>
+        <v>0.9964089974371736</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1020</v>
@@ -3505,19 +3505,19 @@
         <v>1089037</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1082575</v>
+        <v>1081976</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1093013</v>
+        <v>1093119</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9936221577742559</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9877268785333043</v>
+        <v>0.9871797569387082</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9972496739911876</v>
+        <v>0.997346362628051</v>
       </c>
     </row>
     <row r="12">
@@ -3609,19 +3609,19 @@
         <v>31901</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>20651</v>
+        <v>22726</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46411</v>
+        <v>46219</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009444945258343855</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.006114082203965591</v>
+        <v>0.006728295721104119</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01374066482730912</v>
+        <v>0.01368389203368559</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>52</v>
@@ -3630,19 +3630,19 @@
         <v>57288</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43959</v>
+        <v>43552</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75923</v>
+        <v>76660</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01621938049230771</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01244544789247421</v>
+        <v>0.01233041615841244</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02149508771042214</v>
+        <v>0.02170375402411836</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>82</v>
@@ -3651,19 +3651,19 @@
         <v>89190</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>70780</v>
+        <v>71489</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>110102</v>
+        <v>111320</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01290789191330087</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01024347734017875</v>
+        <v>0.01034609345552488</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01593442896073287</v>
+        <v>0.0161107125661117</v>
       </c>
     </row>
     <row r="14">
@@ -3680,19 +3680,19 @@
         <v>3345717</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3331207</v>
+        <v>3331399</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3356967</v>
+        <v>3354892</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9905550547416562</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9862593351726908</v>
+        <v>0.9863161079663147</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9938859177960344</v>
+        <v>0.9932717042788967</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3274</v>
@@ -3701,19 +3701,19 @@
         <v>3474812</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3456177</v>
+        <v>3455440</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3488141</v>
+        <v>3488548</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9837806195076922</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9785049122895779</v>
+        <v>0.9782962459758816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.987554552107526</v>
+        <v>0.9876695838415877</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>6459</v>
@@ -3722,19 +3722,19 @@
         <v>6820528</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>6799616</v>
+        <v>6798398</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6838938</v>
+        <v>6838229</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9870921080866991</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9840655710392674</v>
+        <v>0.9838892874338888</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9897565226598213</v>
+        <v>0.9896539065444754</v>
       </c>
     </row>
     <row r="15">
@@ -4065,19 +4065,19 @@
         <v>22551</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15312</v>
+        <v>14895</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32289</v>
+        <v>32750</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03897974139020566</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0264674425694342</v>
+        <v>0.02574688433530777</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05581244716476363</v>
+        <v>0.05660901141340884</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>59</v>
@@ -4086,19 +4086,19 @@
         <v>32557</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24356</v>
+        <v>24847</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>41059</v>
+        <v>41661</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03960469102399456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02962886732304837</v>
+        <v>0.03022615441269332</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0499483092608465</v>
+        <v>0.05068037599706891</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>85</v>
@@ -4107,19 +4107,19 @@
         <v>55107</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>44176</v>
+        <v>44791</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68231</v>
+        <v>68691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03934654437804157</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0315416329107781</v>
+        <v>0.03198053669597059</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04871654817780301</v>
+        <v>0.04904523112323245</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>555978</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>546240</v>
+        <v>545779</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>563217</v>
+        <v>563634</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9610202586097945</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9441875528352363</v>
+        <v>0.9433909885865912</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9735325574305657</v>
+        <v>0.9742531156646921</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1368</v>
@@ -4157,19 +4157,19 @@
         <v>789481</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>780979</v>
+        <v>780377</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>797682</v>
+        <v>797191</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9603953089760056</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9500516907391535</v>
+        <v>0.9493196240029311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9703711326769515</v>
+        <v>0.9697738455873067</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2033</v>
@@ -4178,19 +4178,19 @@
         <v>1345460</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1332336</v>
+        <v>1331876</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1356391</v>
+        <v>1355776</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9606534556219586</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9512834518221963</v>
+        <v>0.9509547688767676</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9684583670892216</v>
+        <v>0.9680194633040293</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>42569</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>30456</v>
+        <v>32119</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58230</v>
+        <v>60221</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0190844982229308</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01365384869658315</v>
+        <v>0.0143996879700079</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02610564646332698</v>
+        <v>0.02699794076521951</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>77</v>
@@ -4303,19 +4303,19 @@
         <v>63876</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>50548</v>
+        <v>49301</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82039</v>
+        <v>80969</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.02941702386379934</v>
+        <v>0.02941702386379933</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02327902186171422</v>
+        <v>0.02270457488107491</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03778191574575474</v>
+        <v>0.03728911613945922</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>119</v>
@@ -4324,19 +4324,19 @@
         <v>106445</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>85380</v>
+        <v>88396</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127472</v>
+        <v>129345</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02418131250491696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01939595764109692</v>
+        <v>0.02008096751702967</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02895790747595618</v>
+        <v>0.02938345750116324</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>2187997</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2172336</v>
+        <v>2170345</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2200110</v>
+        <v>2198447</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9809155017770692</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9738943535366729</v>
+        <v>0.9730020592347808</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9863461513034169</v>
+        <v>0.9856003120299921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2844</v>
@@ -4374,19 +4374,19 @@
         <v>2107516</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2089353</v>
+        <v>2090423</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>2120844</v>
+        <v>2122091</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9705829761362008</v>
+        <v>0.9705829761362004</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9622180842542454</v>
+        <v>0.9627108838605407</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.976720978138286</v>
+        <v>0.9772954251189248</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4794</v>
@@ -4395,19 +4395,19 @@
         <v>4295514</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4274487</v>
+        <v>4272614</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4316579</v>
+        <v>4313563</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9758186874950832</v>
+        <v>0.9758186874950829</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9710420925240436</v>
+        <v>0.9706165424988368</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9806040423589029</v>
+        <v>0.9799190324829702</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>15977</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8598</v>
+        <v>9459</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27626</v>
+        <v>29933</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02245329370209258</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01208230394697919</v>
+        <v>0.01329341793946185</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03882327275127435</v>
+        <v>0.04206547674866404</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>22</v>
@@ -4520,19 +4520,19 @@
         <v>16336</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10493</v>
+        <v>10293</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>24620</v>
+        <v>24473</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02222928931777033</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01427922250744743</v>
+        <v>0.01400680607355573</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0335024508473659</v>
+        <v>0.03330250175333629</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>36</v>
@@ -4541,19 +4541,19 @@
         <v>32313</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>22295</v>
+        <v>21944</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46494</v>
+        <v>44693</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02233948810627186</v>
+        <v>0.02233948810627185</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01541347804230111</v>
+        <v>0.01517097478176498</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03214311820136634</v>
+        <v>0.03089801286453019</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>695610</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>683961</v>
+        <v>681654</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>702989</v>
+        <v>702128</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9775467062979075</v>
+        <v>0.9775467062979073</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9611767272487256</v>
+        <v>0.957934523251336</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9879176960530208</v>
+        <v>0.9867065820605381</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>982</v>
@@ -4591,19 +4591,19 @@
         <v>718541</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>710257</v>
+        <v>710404</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>724384</v>
+        <v>724584</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9777707106822295</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9664975491526341</v>
+        <v>0.9666974982466636</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9857207774925525</v>
+        <v>0.985993193926444</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1649</v>
@@ -4612,19 +4612,19 @@
         <v>1414151</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1399970</v>
+        <v>1401771</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1424169</v>
+        <v>1424520</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9776605118937283</v>
+        <v>0.9776605118937282</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9678568817986336</v>
+        <v>0.9691019871354696</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9845865219576991</v>
+        <v>0.9848290252182349</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>81098</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>63001</v>
+        <v>63345</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>102880</v>
+        <v>102443</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02303463387288989</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01789464062568164</v>
+        <v>0.017992354625258</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02922166701774508</v>
+        <v>0.02909751816672238</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>158</v>
@@ -4737,19 +4737,19 @@
         <v>112768</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>96414</v>
+        <v>96012</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135756</v>
+        <v>133585</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0302465009058481</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.025859983933939</v>
+        <v>0.02575211081457757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0364121474583629</v>
+        <v>0.03583002706432421</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>240</v>
@@ -4758,19 +4758,19 @@
         <v>193866</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>168706</v>
+        <v>169812</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>222876</v>
+        <v>224616</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02674384799319591</v>
+        <v>0.02674384799319592</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02327305246387346</v>
+        <v>0.023425653319029</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03074582070382458</v>
+        <v>0.03098584687149999</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>3439585</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3417803</v>
+        <v>3418240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3457682</v>
+        <v>3457338</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.97696536612711</v>
+        <v>0.9769653661271102</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.970778332982255</v>
+        <v>0.9709024818332775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9821053593743184</v>
+        <v>0.9820076453747419</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5194</v>
@@ -4808,19 +4808,19 @@
         <v>3615539</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3592551</v>
+        <v>3594722</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3631893</v>
+        <v>3632295</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9697534990941519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.963587852541637</v>
+        <v>0.9641699729356757</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9741400160660608</v>
+        <v>0.9742478891854222</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8476</v>
@@ -4829,19 +4829,19 @@
         <v>7055124</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7026114</v>
+        <v>7024374</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7080284</v>
+        <v>7079178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9732561520068042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9692541792961754</v>
+        <v>0.9690141531284999</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9767269475361269</v>
+        <v>0.9765743466809713</v>
       </c>
     </row>
     <row r="15">
